--- a/testcases/TestData/login data.xlsx
+++ b/testcases/TestData/login data.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
